--- a/doc/物联网平台 - 接口规格定义.xlsx
+++ b/doc/物联网平台 - 接口规格定义.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zhuhuazhen\智慧路灯项目\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\zhuhuazhen\test1\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12630" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12630" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="数据下发消息类型的下发流程" sheetId="15" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="108">
   <si>
     <t>设备</t>
   </si>
@@ -200,18 +200,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>DEV登陆</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEV上线</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEV下线</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>m</t>
     </r>
@@ -278,23 +266,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>evLogin</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>devOnline</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -384,14 +355,6 @@
   </si>
   <si>
     <t>设备端发布</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>？</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -507,6 +470,42 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/公司编号/版本号/namespace1/iotpub/msg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/公司编号/版本号/namespace1/iotpub/status</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/公司编号/版本号/namespace1/devicepub</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>namespace1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEV登陆认证</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEV在线</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEV离线</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备端发布</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>服务非正常关闭？设备端接收到遗愿J</t>
     </r>
@@ -524,24 +523,37 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>区域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/公司编号/版本号/namespace1/iotpub/msg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/公司编号/版本号/namespace1/iotpub/status</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/公司编号/版本号/namespace1/devicepub</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>namespace1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>设备端主动登陆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备端主动提示在线</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备端主动提示离线</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>evLogin</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时取消</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -642,7 +654,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -679,6 +691,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -703,7 +727,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -771,6 +795,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6694,10 +6730,10 @@
     </row>
     <row r="2" spans="1:43" ht="20.25" x14ac:dyDescent="0.2">
       <c r="T2" s="19" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="V2" s="19" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="W2" s="19"/>
       <c r="X2" s="19"/>
@@ -6707,7 +6743,7 @@
     </row>
     <row r="5" spans="1:43" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.2">
@@ -6718,7 +6754,7 @@
     </row>
     <row r="10" spans="1:43" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -6738,7 +6774,7 @@
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H12" s="2"/>
       <c r="AE12" s="4"/>
@@ -6754,7 +6790,7 @@
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -6833,7 +6869,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6873,10 +6909,10 @@
         <v>13</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -6887,7 +6923,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>9</v>
@@ -6896,10 +6932,10 @@
         <v>17</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.2">
@@ -6913,7 +6949,7 @@
         <v>33</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>9</v>
@@ -6923,7 +6959,7 @@
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -6935,7 +6971,7 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>9</v>
@@ -6944,7 +6980,7 @@
         <v>18</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -7025,8 +7061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D6:Q87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G84" sqref="G84"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7040,73 +7076,73 @@
   <sheetData>
     <row r="6" spans="4:17" x14ac:dyDescent="0.2">
       <c r="Q6" s="22" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D14" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D23" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="4:15" x14ac:dyDescent="0.2">
       <c r="E24" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="4:15" x14ac:dyDescent="0.2">
       <c r="O31" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="4:15" x14ac:dyDescent="0.2">
       <c r="O32" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D38" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="4:7" x14ac:dyDescent="0.2">
       <c r="G46" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="4:7" x14ac:dyDescent="0.2">
       <c r="G47" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D53" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="4:5" x14ac:dyDescent="0.2">
       <c r="E54" s="18" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D74" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D87" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -7121,8 +7157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D5:R17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:T12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7137,151 +7173,154 @@
   <sheetData>
     <row r="5" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D5" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
         <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D7" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
         <v>37</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M7" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="4:18" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="4:18" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="25" t="s">
         <v>99</v>
       </c>
+      <c r="F9" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" s="25" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="8" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="D8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" t="s">
+    <row r="10" spans="4:18" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="D9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="D10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>73</v>
+      <c r="G10" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" s="25" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D11" s="17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D12" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G12" s="17"/>
       <c r="L12" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D13" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M13" s="13" t="s">
         <v>44</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="M13" s="13" t="s">
-        <v>47</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -7292,7 +7331,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -7303,7 +7342,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -7311,45 +7350,46 @@
     </row>
     <row r="16" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D16" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="M16" s="2"/>
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D17" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/物联网平台 - 接口规格定义.xlsx
+++ b/doc/物联网平台 - 接口规格定义.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12630" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12630" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="数据下发消息类型的下发流程" sheetId="15" r:id="rId1"/>
@@ -571,6 +571,7 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -6713,7 +6714,7 @@
   <dimension ref="A1:AQ35"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+      <selection activeCell="P53" sqref="P53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7061,8 +7062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D6:Q87"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W73" sqref="W73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7157,8 +7158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D5:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/doc/物联网平台 - 接口规格定义.xlsx
+++ b/doc/物联网平台 - 接口规格定义.xlsx
@@ -15,142 +15,62 @@
     <sheet name="(盒子)设备接入-接口规格-主题" sheetId="16" r:id="rId1"/>
     <sheet name="(盒子)设备接入-接口规格-参数规格" sheetId="17" r:id="rId2"/>
     <sheet name="(盒子)设备接入-接口规格-消息类型" sheetId="19" r:id="rId3"/>
-    <sheet name="设备接入模块-公共API封装 " sheetId="20" r:id="rId4"/>
+    <sheet name="设备接入模块-工作模块划分" sheetId="20" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="21" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="129">
-  <si>
-    <r>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ED</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="143">
   <si>
     <t>发布</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>订阅</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>平台发布，设备端订阅</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备端发布，平台订阅</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>消息格式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>JSON</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>接口类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>接口描述</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>消息类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>说明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>msg=deviceid， 建立连接之前动态拼接的主题,发布万即关闭连接</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/公司编号/版本号/namespace/iotpub/status</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>/公司编号/版本号/namespace/iopub/deviceid</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>盒子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>灯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>灯杆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>摄像头</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WIFI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>接入某个namespace区域下的设备（1000），需要定义以下主题 1000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否每个盒子只录入一个主题？建议是  ；然后盒子下的设备是不需要绑定主题了的？建议是 ，</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>平台发布，设备端订阅</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>不同盒子的deviceid是否唯一？建议是</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果是盒子，记得JSON串里面 可以继续指定所包含的设备的deviceid</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>已和刘工确认，方案如上</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1，建立连接 主题 /公司编号/版本号/namespace/iotpub/status</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2，发布up状态的数据（待确认）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -167,27 +87,19 @@
       </rPr>
       <t>Q服务断线，MQ自动检测到，并推送一个down状态的消息给设备端，设备端会根据此标识关闭连接</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>遗愿机制 ，应用级别的在线监控</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>遗愿机制实现过程（平台）：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>遗愿机制实现过程（设备端）：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>平台上线</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>平台下线</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -204,144 +116,83 @@
       </rPr>
       <t>sg</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>下发请求</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>上报下发请求结果</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性上报</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>由设备触发了事件上报信息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否支持批量？</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>服务启动的时候场景</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>控制指令</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>se</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>rviceOnline</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>devOnline</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>devOffline</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>request</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>response</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>devInfoResponse</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>devSignlResponse</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>消息类型:</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>msg</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>msg</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>上报不需要请求结果么？可以不需要</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>metricInfoResponse</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备状态数据上报</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>msg</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性、方法都会上报</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>灯光调整到100</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>开灯</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>如：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>设备状态数据上报-定义JSON</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>下发请求-定义JSON</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>平台上线/下线</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>serviceOffline</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>平台端发布</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>设备端发布</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -370,98 +221,61 @@
       </rPr>
       <t>-定义JSON</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>上报频率 可以通过request类型来控制 提供方法setFrequency</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>设备故障，连接挂</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>属性有变化的时候上报</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>上报设备属性,也可以通过下发请求来获取设备属性</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>保留入参</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>返回指定字段的值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定入参和值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定返回哪些字段</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>属性上报 -定义JSON</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>设备信号上报 -定义JSON</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>消息体：</t>
   </si>
   <si>
-    <t>发布完关闭，避免长时间建立大量长连接。
-订阅端还是要保持长连接状态。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>服务正常关闭时候的场景</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>status</t>
   </si>
   <si>
-    <t>待确定</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>区域</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/公司编号/版本号/namespace1/iotpub/msg</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>/公司编号/版本号/namespace1/iotpub/status</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>namespace1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEV登陆认证</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEV在线</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEV离线</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>设备端发布</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -478,19 +292,19 @@
       </rPr>
       <t>SON，这个JSON和正常关闭的JSON是一样的？</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>设备端主动登陆</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>设备端主动提示在线</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>设备端主动提示离线</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -507,34 +321,11 @@
       </rPr>
       <t>evLogin</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>暂时取消</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备信号上报</t>
-  </si>
-  <si>
-    <t>设备信号上报</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求响应</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">定义源数据模型，处理数据交互认证，异步输出到KAFKA </t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">定义源数据模型，处理数据交互认证，异步输出到KAFKA </t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">定义源数据模型，处理数据交互认证，异步输出到KAFKA </t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -551,172 +342,47 @@
       </rPr>
       <t>AFKA</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>上报或计算或其他</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>获取转化成元模型，并存储</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>盒子 -优先级1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>PLC -优先级2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>第三方(wiff) -优先级3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>代瑾文</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>朱华振</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>小组划分</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>获取转化成元模型，并存储</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>opic1</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>opic2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>opic3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>opic4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>opic5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>视频流</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -733,7 +399,7 @@
       </rPr>
       <t>tsp协议</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -750,15 +416,15 @@
       </rPr>
       <t>estAPI</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>待分析</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>分析中</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>适配接入（未知模型）
@@ -766,7 +432,7 @@
 消息认证
 服务在线
 设备在线</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>适配接入（未知模型）
@@ -774,15 +440,7 @@
 消息认证
 服务在线
 设备在线</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>/公司编号/版本号/namespace1/devicepub</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>/公司编号/版本号/namespace/devicepub</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -810,33 +468,370 @@
       </rPr>
       <t>模型，并存储</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>适配接入(源模型)
 消息认证
 服务在线
 设备在线</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>kafka topic</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>response</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性、方法都会上报</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TC时间</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产消息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费消息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产消息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>erger</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>request</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>etricInfoResponseDataVO</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>devSignlResponse</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DevInfoDataVO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台下线</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEV登陆认证</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEV在线</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEV离线</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>下发请求</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性上报</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备状态数据上报</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备信号上报</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如：灯光调整到100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如：开灯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>待确定，持续调整中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>se</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rviceOnline</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>essageVO</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceDataVO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResponseDataVO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DevSignlResponse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DataVO</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>iot_topic_dataAcess_request</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hzyw/001/ns1/serviceid/iotpub/msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/公司编号/版本号/namespace/serviceid/iopub/deviceid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hzyw/001/ns1/serviceid/iotpub/status</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台订阅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台发布</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台订阅(自检测掉线)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台订阅(自检测掉线)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg=deviceid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台下线（遗愿处理）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hzyw/001/iotpub/serviceid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能关闭连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台上线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hzyw/001/ns1/serviceid/iotpub</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hzyw/001/iotpub/serviceid/status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗愿处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备上线/下线</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>iot_topic_dataAcess</t>
+  </si>
+  <si>
+    <t>iot_topic_dataAcess</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>下发</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>下发请求上报</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备属性上报</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备状态数据上报</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备接入模块</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>代瑾文</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>iot_topic_dataAcess_devInfoResponse</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -910,12 +905,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -938,8 +927,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -984,90 +979,111 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1091,11 +1107,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>638174</xdr:colOff>
+      <xdr:colOff>410</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:rowOff>157786</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1838325" cy="1908856"/>
+    <xdr:ext cx="2384978" cy="2177909"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="文本框 1"/>
@@ -1103,126 +1119,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2695574" y="247649"/>
-          <a:ext cx="1838325" cy="1908856"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>统一的外层包装：</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>{</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t> type:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>消息类型</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t> data:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>消息体</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t> seq:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>序号</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t> timestamp:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>时间</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>}</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>619124</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1838325" cy="2209387"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="文本框 2"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7054711" y="325091"/>
-          <a:ext cx="1838325" cy="2209387"/>
+          <a:off x="2062780" y="340003"/>
+          <a:ext cx="2384978" cy="2177909"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1251,6 +1149,177 @@
         <a:p>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>统一的外层包装：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t> type:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>消息类型</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t> data:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>消息体</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t> timestamp:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>时间</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>msgId   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>应用端页面透传进来</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>UUID</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" u="sng" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>messageCode    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" u="sng" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>刘工返回</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1" u="sng" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>387211</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>159439</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2072724" cy="2209387"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文本框 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5870298" y="341656"/>
+          <a:ext cx="2072724" cy="2209387"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>消息体</a:t>
           </a:r>
           <a:r>
@@ -1286,38 +1355,59 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t> status:</a:t>
+            <a:t> attributers:[</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>状态</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t> attributer:[]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t> method:[0]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> definedAttributer:[]</a:t>
+            <a:t>属性</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，属性</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2...]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t> methods:[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>方法</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，方法</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2...]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> definedAttributers:[]</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="zh-CN">
             <a:effectLst/>
@@ -1334,26 +1424,29 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> definedMethod:[]</a:t>
+            <a:t> definedMethods:[]</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>signal:[</a:t>
+            <a:t> signals:[{</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>消息中断</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>字段：消息中断</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>}]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t> tags:{key:value,key:value}</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:r>
@@ -1374,9 +1467,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>14654</xdr:rowOff>
+      <xdr:colOff>1358348</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>6371</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1838325" cy="2168770"/>
     <xdr:sp macro="" textlink="">
@@ -1386,7 +1479,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3399692" y="4410808"/>
+          <a:off x="4754218" y="4379588"/>
           <a:ext cx="1838325" cy="2168770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1425,21 +1518,12 @@
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>{</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t> type:request</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t> data:{</a:t>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t> {</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1500,7 +1584,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>       in:{</a:t>
+            <a:t>       in:[{</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
@@ -1536,7 +1620,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>100}</a:t>
+            <a:t>100}]</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
@@ -1660,8 +1744,23 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>}</a:t>
-          </a:r>
+            <a:t>},</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>tags:{key:value,key:value}</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
@@ -1672,12 +1771,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>674076</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>14652</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>409032</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>22936</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1838325" cy="2264021"/>
+    <xdr:ext cx="1669903" cy="1857218"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="文本框 4"/>
@@ -1685,8 +1784,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5473211" y="5876190"/>
-          <a:ext cx="1838325" cy="2264021"/>
+          <a:off x="6844619" y="4396153"/>
+          <a:ext cx="1669903" cy="1857218"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1776,7 +1875,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> type:request</a:t>
+            <a:t>deviceid:dg01</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="zh-CN">
             <a:effectLst/>
@@ -1793,7 +1892,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> data:{</a:t>
+            <a:t>methods:</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="zh-CN">
             <a:effectLst/>
@@ -1810,176 +1909,157 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>deviceid:dg01</a:t>
+            <a:t>    [{method:setLghtOn,</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="zh-CN">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>methods:</a:t>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>       in:[{</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>开关状态</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1}]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>，</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="zh-CN">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    [{method:setLghtOn,</a:t>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>       out:[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>开关状态</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="zh-CN">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>       in:{</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>开关状态</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>：</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>1}</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>，</a:t>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    }]</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="zh-CN">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>       out:[</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>开关状态</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    }]</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>}</a:t>
-          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>},</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>tags:{key:value,key:value}</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
@@ -1992,7 +2072,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>43962</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>14653</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2454519" cy="3143252"/>
@@ -2050,18 +2130,6 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t> type:metricInfoResponse</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t> data:{</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>deviceid:dg01</a:t>
           </a:r>
         </a:p>
@@ -2076,7 +2144,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>attributer:</a:t>
+            <a:t>attributers:</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2375,8 +2443,23 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>}</a:t>
-          </a:r>
+            <a:t>},</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>tags:{key:value,key:value}</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
@@ -2393,9 +2476,9 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>58615</xdr:rowOff>
+      <xdr:rowOff>58614</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2630366" cy="1208944"/>
+    <xdr:ext cx="2630366" cy="1324581"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="文本框 7"/>
@@ -2403,8 +2486,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3399692" y="5370634"/>
-          <a:ext cx="2630366" cy="1208944"/>
+          <a:off x="3395870" y="2427440"/>
+          <a:ext cx="2630366" cy="1324581"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2450,20 +2533,46 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t> type:serviceOnline,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>data:{</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>   serviceid:adapter01</a:t>
-          </a:r>
+            <a:t>   serviceid:adapter01,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>   status:online,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   tags:{key:value,key:value}</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
@@ -2483,12 +2592,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1003788</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>473701</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>111815</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2212731" cy="2183424"/>
+    <xdr:ext cx="2212731" cy="1876011"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="10" name="文本框 9"/>
@@ -2496,8 +2605,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9510346" y="7422173"/>
-          <a:ext cx="2212731" cy="2183424"/>
+          <a:off x="2536071" y="4485032"/>
+          <a:ext cx="2212731" cy="1876011"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2568,18 +2677,6 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t> type:request</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t> data:{</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>deviceid:dg01</a:t>
           </a:r>
         </a:p>
@@ -2618,7 +2715,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>       in:{</a:t>
+            <a:t>       in:[{</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
@@ -2666,7 +2763,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>,...}</a:t>
+            <a:t>,...}]</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2748,8 +2845,23 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t> }</a:t>
-          </a:r>
+            <a:t> },</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>tags:{key:value,key:value}</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
@@ -2765,10 +2877,10 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1077058</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>21980</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2212731" cy="2417885"/>
+    <xdr:ext cx="2212731" cy="2181194"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="11" name="文本框 10"/>
@@ -2776,8 +2888,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3143250" y="9913326"/>
-          <a:ext cx="2212731" cy="2417885"/>
+          <a:off x="3139428" y="6946241"/>
+          <a:ext cx="2212731" cy="2181194"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2842,6 +2954,9 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>{</a:t>
@@ -2850,18 +2965,6 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t> type:response</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t> data:{</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>deviceid:dg01</a:t>
           </a:r>
         </a:p>
@@ -2900,7 +3003,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>       in:{</a:t>
+            <a:t>       in:[{</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
@@ -2948,7 +3051,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>,...}</a:t>
+            <a:t>,...}]</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3054,8 +3157,23 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t> }</a:t>
-          </a:r>
+            <a:t> },</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>tags:{key:value,key:value}</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
@@ -3071,7 +3189,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>549518</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>168518</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3004039" cy="1795097"/>
@@ -3149,37 +3267,6 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>type:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>devInfoResponse</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t> deviceId:</a:t>
           </a:r>
@@ -3195,26 +3282,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t> status:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>状态    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>--</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>应该不需要吧</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t> attributer:[</a:t>
+            <a:t> attributers:[</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
@@ -3236,21 +3304,21 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t> method:[method1,method2...]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> definedAttributer:[</a:t>
+            <a:t> methods:[method1,method2...]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> definedAttributers:[</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
@@ -3315,7 +3383,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> definedMethod:[method3,method4...]</a:t>
+            <a:t> definedMethods:[method3,method4...]</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
@@ -3326,6 +3394,22 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>tags:{key:value,key:value}</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
@@ -3339,10 +3423,10 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>402979</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>117230</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3004039" cy="1487366"/>
+    <xdr:ext cx="4525173" cy="1487366"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="文本框 12"/>
@@ -3350,8 +3434,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2469171" y="19167230"/>
-          <a:ext cx="3004039" cy="1487366"/>
+          <a:off x="2465349" y="15970143"/>
+          <a:ext cx="4525173" cy="1487366"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3416,6 +3500,20 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t> deviceId:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>设备</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ID</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPct val="100000"/>
@@ -3434,55 +3532,80 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>type:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>devInfoResponse</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t> </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t> deviceId:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>设备</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>ID</a:t>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>signals:[{</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>消息类型字段：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>消息中断</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>},{</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>消息类型字段：消息中断</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}],</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3504,50 +3627,17 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>signal:[</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>消息中断</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>tags:{key:value,key:value}</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
@@ -3568,9 +3658,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>425823</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>318162</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>69821</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2630366" cy="1208944"/>
@@ -3581,7 +3671,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6846794" y="2579939"/>
+          <a:off x="5113792" y="2438647"/>
           <a:ext cx="2630366" cy="1208944"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3628,20 +3718,367 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t> type: serviceOffline</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t> data:{</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>   serviceid:adapter01</a:t>
-          </a:r>
+            <a:t>   serviceid:adapter01,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>status:offline,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   tags:{key:value,key:value}</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t> }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1225826</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>166288</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2630366" cy="1324581"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="文本框 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3288196" y="3810636"/>
+          <a:ext cx="2630366" cy="1324581"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>上线</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>deviceId</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>:adapter01,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>   status:online,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   tags:{key:value,key:value}</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t> }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>256762</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>75179</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2630366" cy="1324581"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="文本框 15"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5052392" y="3719527"/>
+          <a:ext cx="2630366" cy="1324581"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>下线</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>deviceId</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>:adapter01,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>   status:offline,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   tags:{key:value,key:value}</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
@@ -3920,10 +4357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3937,175 +4374,162 @@
   <sheetData>
     <row r="1" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="H5" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F10" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D21" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="3" t="s">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D14" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D15" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D22" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E29" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>29</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -4113,10 +4537,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D6:Q87"/>
+  <dimension ref="D3:Q93"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K73" sqref="K73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4128,79 +4552,125 @@
     <col min="12" max="12" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="3" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="F3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="5" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="F5" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
     <row r="6" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="Q6" s="12" t="s">
-        <v>82</v>
-      </c>
+      <c r="F6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="F7" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="F8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
     </row>
     <row r="14" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D14" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D23" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="E24" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="O31" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="O32" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D38" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="G46" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="G47" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D53" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E54" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D74" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D87" s="2" t="s">
-        <v>77</v>
+        <v>32</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="23" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="F30" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="O37" s="2"/>
+    </row>
+    <row r="38" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="44" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D44" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="G52" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="G53" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D59" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="E60" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D80" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D93" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4212,7 +4682,7 @@
   <dimension ref="D5:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="D10" sqref="D10:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4227,154 +4697,154 @@
   <sheetData>
     <row r="5" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D5" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D6" s="2" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="4:18" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="13" t="s">
+      <c r="M7" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="4:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="4:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="4:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="M8" s="13" t="s">
+      <c r="F10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D11" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="9" spans="4:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D9" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="4:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D10" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="D11" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>42</v>
+      <c r="F11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="D12" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="10"/>
+      <c r="D12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="6"/>
       <c r="L12" s="2" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D13" s="2" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>40</v>
+      <c r="M13" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="6" t="s">
-        <v>53</v>
+      <c r="O13" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -4385,7 +4855,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -4396,7 +4866,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -4404,45 +4874,45 @@
     </row>
     <row r="16" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D16" s="2" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="M16" s="2"/>
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D17" s="2" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="M17" s="2" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -4450,190 +4920,309 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R13"/>
+  <dimension ref="B3:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="B16" sqref="B16:L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="33.375" customWidth="1"/>
-    <col min="12" max="12" width="23.75" customWidth="1"/>
-    <col min="13" max="13" width="5.625" customWidth="1"/>
-    <col min="14" max="14" width="26.25" customWidth="1"/>
-    <col min="15" max="15" width="5.5" customWidth="1"/>
-    <col min="16" max="16" width="22.25" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="33.125" customWidth="1"/>
+    <col min="4" max="4" width="18.75" customWidth="1"/>
+    <col min="5" max="5" width="26.25" customWidth="1"/>
+    <col min="6" max="6" width="5.5" customWidth="1"/>
+    <col min="7" max="7" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="L5" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="O5" s="1"/>
-      <c r="P5" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C5" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="I6" s="14"/>
+    </row>
+    <row r="7" spans="2:9" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="14"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="I8" s="14"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C9" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="I10" s="14"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="14"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C12" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="19"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C13" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="R5" s="17" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="L6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="R6" s="18"/>
-    </row>
-    <row r="7" spans="2:18" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="K7" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="L7" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="N7" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="P7" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="R7" s="18"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="R8" s="18"/>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L9" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="N9" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="P9" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="R9" s="19" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="R10" s="18"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="K11" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="L11" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="M11" s="21"/>
-      <c r="N11" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="O11" s="21"/>
-      <c r="P11" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="R11" s="18"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L12" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="M12" s="21"/>
-      <c r="N12" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="O12" s="21"/>
-      <c r="P12" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="R12" s="23"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L13" s="24" t="s">
-        <v>120</v>
-      </c>
+      <c r="D18" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C19" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C20" s="27"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C21" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="24"/>
+      <c r="G21" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C22" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="24"/>
+      <c r="G22" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C23" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="24"/>
+      <c r="G23" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" s="2"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="33" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E35" s="2"/>
+      <c r="G35" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>